--- a/tabular/Asian_SEA3_miss.xlsx
+++ b/tabular/Asian_SEA3_miss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/general/NCBI-RABV-GLUE/tabular/Asia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/general/NCBI-RABV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59BC85D-C7E7-DE4B-976D-CD85653812B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3825F5E5-CC93-694C-8F75-DA7B5AFFBE3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14439" uniqueCount="1686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14441" uniqueCount="1688">
   <si>
     <t>sequence.sequenceID</t>
   </si>
@@ -5083,6 +5083,12 @@
   </si>
   <si>
     <t>Udorththani</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
@@ -6370,6 +6376,54 @@
   <dxfs count="84">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -7207,54 +7261,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -7269,14 +7275,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="Q1:AG522" totalsRowShown="0" headerRowDxfId="83" tableBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="Q1:AG522" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="Q1:AG522" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="country_edit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Country_update"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="place_edit" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="place_edit" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="place_update"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Collection.year_edit" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Collection.year_edit" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Collection.year_update"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="earliest.collection_edit"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="earliest.collection_update"/>
@@ -7618,8 +7624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H463" workbookViewId="0">
-      <selection activeCell="Q463" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="A1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7644,6 +7650,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1687</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7739,6 +7748,9 @@
       </c>
       <c r="AG1" s="30" t="s">
         <v>1521</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
@@ -59080,322 +59092,322 @@
     <sortCondition descending="1" ref="K1"/>
   </sortState>
   <conditionalFormatting sqref="R1 X1 T1 V1 Z1 AB1 AG1">
-    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:AA21 AC11:AC21 Q22:AC23 Q25:AC32 Q24:AA24 AC24 Q33:AA34 AC34:AF34 Q37:AA38 AC37:AC38 Q1:AG2 Q3:AC10 AC33 AD3:AF33 Q35:AF35 Q36:AC36 AD36:AF38 T39:T49 X39:X42 Z39:Z42 AD39:AE522 AG3:AG522">
-    <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="81" priority="79" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",Q1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="80" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="80" priority="80" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA39">
-    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="79" priority="77" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",AA39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",AA39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA40:AA41">
-    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="77" priority="75" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",AA40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="76" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",AA40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA42">
-    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="75" priority="73" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",AA42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="74" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",AA42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R50:R62">
-    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="73" priority="71" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",R50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",R50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R69:R92">
-    <cfRule type="containsText" dxfId="67" priority="69" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",R69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="70" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",R69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50:T62">
-    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="69" priority="67" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",T50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="68" priority="68" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",T50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T69:T92">
-    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",T69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="66" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",T69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T104:T342">
-    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",T104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="64" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",T104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V104:V342">
-    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",V104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",V104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X104:X342">
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="61" priority="57" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",X104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="60" priority="58" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",X104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z104:Z342">
-    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",Z104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="58" priority="56" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",Z104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V343">
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="57" priority="53" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",V343)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="56" priority="54" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",V343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB342:AB343">
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="55" priority="51" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",AB342)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="54" priority="52" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",AB342)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB43">
-    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",AB43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",AB43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R345">
-    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="51" priority="47" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",R345)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="50" priority="48" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",R345)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R346">
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="49" priority="45" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",R346)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="48" priority="46" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",R346)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R419:R472">
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",R419)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",R419)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T350:T418">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="45" priority="41" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",T350)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="44" priority="42" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",T350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T473:T518">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="43" priority="39" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",T473)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="42" priority="40" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",T473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V345">
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",V345)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",V345)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V347">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="39" priority="35" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",V347)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="38" priority="36" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",V347)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V348">
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="37" priority="33" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",V348)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="36" priority="34" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",V348)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V350:V418">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",V350)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",V350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V473:V518">
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="33" priority="29" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",V473)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="32" priority="30" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",V473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X343">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="31" priority="27" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",X343)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",X343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X345">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",X345)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",X345)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X347">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",X347)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",X347)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X348">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",X348)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",X348)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X350:X418">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",X350)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",X350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X473:X518">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",X473)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",X473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z343">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",Z343)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",Z343)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z345">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",Z345)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",Z345)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z347">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",Z347)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",Z347)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z348">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",Z348)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",Z348)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z350:Z418">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",Z350)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",Z350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z473:Z518">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",Z473)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",Z473)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB345:AB346">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",AB345)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",AB345)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB473:AB518">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="updated">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="updated">
       <formula>NOT(ISERROR(SEARCH("updated",AB473)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="filled in">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="filled in">
       <formula>NOT(ISERROR(SEARCH("filled in",AB473)))</formula>
     </cfRule>
   </conditionalFormatting>
